--- a/data/trans_orig/P14C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF78D99-AA53-43DB-AA11-D492AFDB2090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5906152-FFFA-409B-BACD-1B4FC2CAC0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1FF34A3D-1083-459B-86CB-91EA8B20A0D0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49488E7B-8482-40BF-979E-94808562AE24}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
   <si>
     <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>89,92%</t>
   </si>
   <si>
-    <t>56,25%</t>
+    <t>55,49%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,7 +113,7 @@
     <t>10,08%</t>
   </si>
   <si>
-    <t>43,75%</t>
+    <t>44,51%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -131,7 +131,7 @@
     <t>84,54%</t>
   </si>
   <si>
-    <t>61,3%</t>
+    <t>61,66%</t>
   </si>
   <si>
     <t>95,61%</t>
@@ -140,49 +140,49 @@
     <t>84,19%</t>
   </si>
   <si>
-    <t>61,73%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
+    <t>61,78%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
+    <t>69,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
   </si>
   <si>
     <t>10,95%</t>
   </si>
   <si>
-    <t>35,12%</t>
+    <t>34,16%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>38,22%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>19,5%</t>
+    <t>24,07%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -191,7 +191,7 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>9,42%</t>
+    <t>11,45%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -200,46 +200,46 @@
     <t>91,34%</t>
   </si>
   <si>
-    <t>72,13%</t>
+    <t>71,5%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
+    <t>82,32%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>83,82%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>27,87%</t>
+    <t>28,5%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>14,88%</t>
+    <t>13,96%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -248,13 +248,13 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>12,18%</t>
+    <t>10,51%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>8,42%</t>
+    <t>7,91%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -266,19 +266,19 @@
     <t>90,16%</t>
   </si>
   <si>
-    <t>75,14%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
+    <t>75,26%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -287,19 +287,19 @@
     <t>9,84%</t>
   </si>
   <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>24,74%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -314,49 +314,46 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>82,26%</t>
+    <t>81,82%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>17,74%</t>
+    <t>18,18%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -365,79 +362,76 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,49%</t>
+    <t>11,16%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>5,88%</t>
+    <t>6,46%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>84,45%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
+    <t>95,82%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>85,02%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>6,79%</t>
+    <t>4,01%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,82%</t>
+    <t>4,83%</t>
   </si>
   <si>
     <t>1,23%</t>
@@ -446,7 +440,7 @@
     <t>0,36%</t>
   </si>
   <si>
-    <t>3,26%</t>
+    <t>3,32%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -861,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E55970E1-0A07-45BA-9479-49085CC061D1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4F0547-B450-4BAD-A126-5A2237AD8B4D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1878,10 +1872,10 @@
         <v>101</v>
       </c>
       <c r="K21" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1890,13 +1884,13 @@
         <v>4866</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1917,7 +1911,7 @@
         <v>22</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1926,13 +1920,13 @@
         <v>902</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1941,13 +1935,13 @@
         <v>902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2009,13 @@
         <v>78799</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="H24" s="7">
         <v>117</v>
@@ -2030,13 +2024,13 @@
         <v>126349</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M24" s="7">
         <v>193</v>
@@ -2045,13 +2039,13 @@
         <v>205148</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2060,13 @@
         <v>6579</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2081,13 +2075,13 @@
         <v>10839</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2096,13 +2090,13 @@
         <v>17419</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2117,13 +2111,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2132,13 +2126,13 @@
         <v>1969</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>20</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2147,13 +2141,13 @@
         <v>2775</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2209,7 +2203,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C09-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14C09-Habitat-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5906152-FFFA-409B-BACD-1B4FC2CAC0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04811CD6-E7FC-4FEB-8B2D-693F3E2F2EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{49488E7B-8482-40BF-979E-94808562AE24}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B83CA993-1D0D-4FFE-ADB8-6080ADDC66DE}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="136">
-  <si>
-    <t>Población según el tiempo de diagnóstico del asma en 2015 (Tasa respuesta: 3,26%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="135">
+  <si>
+    <t>Población según el tiempo de diagnóstico del asma en 2016 (Tasa respuesta: 3,26%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Mas de 4 años</t>
@@ -74,7 +74,7 @@
     <t>76,24%</t>
   </si>
   <si>
-    <t>23,16%</t>
+    <t>0,0%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -89,7 +89,7 @@
     <t>89,92%</t>
   </si>
   <si>
-    <t>55,49%</t>
+    <t>56,02%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -98,12 +98,6 @@
     <t>23,76%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
     <t>0%</t>
   </si>
   <si>
@@ -113,7 +107,7 @@
     <t>10,08%</t>
   </si>
   <si>
-    <t>44,51%</t>
+    <t>43,98%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -125,31 +119,31 @@
     <t>18,74%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>84,54%</t>
   </si>
   <si>
-    <t>61,66%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
+    <t>58,65%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
   </si>
   <si>
     <t>84,19%</t>
   </si>
   <si>
-    <t>61,78%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>84,36%</t>
   </si>
   <si>
-    <t>69,52%</t>
+    <t>69,95%</t>
   </si>
   <si>
     <t>94,58%</t>
@@ -158,31 +152,31 @@
     <t>10,95%</t>
   </si>
   <si>
-    <t>34,16%</t>
+    <t>36,53%</t>
   </si>
   <si>
     <t>15,81%</t>
   </si>
   <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
   </si>
   <si>
     <t>13,4%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
   </si>
   <si>
     <t>4,51%</t>
   </si>
   <si>
-    <t>24,07%</t>
+    <t>19,62%</t>
   </si>
   <si>
     <t>9,99%</t>
@@ -191,55 +185,55 @@
     <t>2,24%</t>
   </si>
   <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>91,34%</t>
   </si>
   <si>
-    <t>71,5%</t>
+    <t>71,34%</t>
   </si>
   <si>
     <t>93,45%</t>
   </si>
   <si>
-    <t>82,32%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
   </si>
   <si>
     <t>92,72%</t>
   </si>
   <si>
-    <t>83,82%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>8,66%</t>
   </si>
   <si>
-    <t>28,5%</t>
+    <t>28,66%</t>
   </si>
   <si>
     <t>4,12%</t>
   </si>
   <si>
-    <t>13,96%</t>
+    <t>13,86%</t>
   </si>
   <si>
     <t>5,69%</t>
   </si>
   <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
   </si>
   <si>
     <t>8,27%</t>
@@ -248,16 +242,16 @@
     <t>2,43%</t>
   </si>
   <si>
-    <t>10,51%</t>
+    <t>12,35%</t>
   </si>
   <si>
     <t>1,59%</t>
   </si>
   <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>84,31%</t>
@@ -266,19 +260,19 @@
     <t>90,16%</t>
   </si>
   <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
   </si>
   <si>
     <t>15,69%</t>
@@ -287,19 +281,19 @@
     <t>9,84%</t>
   </si>
   <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
   </si>
   <si>
     <t>6,36%</t>
@@ -314,46 +308,49 @@
     <t>94,19%</t>
   </si>
   <si>
-    <t>81,82%</t>
+    <t>80,86%</t>
   </si>
   <si>
     <t>90,24%</t>
   </si>
   <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
+    <t>77,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
   </si>
   <si>
     <t>91,91%</t>
   </si>
   <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>5,81%</t>
   </si>
   <si>
-    <t>18,18%</t>
+    <t>19,14%</t>
   </si>
   <si>
     <t>7,57%</t>
   </si>
   <si>
-    <t>18,33%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
   </si>
   <si>
     <t>6,83%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
   </si>
   <si>
     <t>6,15%</t>
@@ -362,85 +359,85 @@
     <t>2,19%</t>
   </si>
   <si>
-    <t>11,16%</t>
+    <t>13,3%</t>
   </si>
   <si>
     <t>1,26%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>7,47%</t>
   </si>
   <si>
     <t>91,43%</t>
   </si>
   <si>
-    <t>95,82%</t>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
   </si>
   <si>
     <t>90,8%</t>
   </si>
   <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
+    <t>84,59%</t>
   </si>
   <si>
     <t>91,04%</t>
   </si>
   <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
+    <t>86,81%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>7,63%</t>
   </si>
   <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
   </si>
   <si>
     <t>7,79%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
   </si>
   <si>
     <t>0,94%</t>
   </si>
   <si>
-    <t>4,01%</t>
+    <t>4,72%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>4,83%</t>
+    <t>4,87%</t>
   </si>
   <si>
     <t>1,23%</t>
   </si>
   <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -855,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA4F0547-B450-4BAD-A126-5A2237AD8B4D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01E52BE2-61D5-4599-A84D-469E88212FD5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1033,10 +1030,10 @@
         <v>19</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1045,13 +1042,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -1060,19 +1057,19 @@
         <v>878</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1081,13 +1078,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1096,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1111,13 +1108,13 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1173,7 +1170,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1185,13 +1182,13 @@
         <v>15130</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>30</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -1200,13 +1197,13 @@
         <v>15287</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>35</v>
       </c>
       <c r="M8" s="7">
         <v>29</v>
@@ -1215,13 +1212,13 @@
         <v>30416</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1236,13 +1233,13 @@
         <v>1960</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H9" s="7">
         <v>3</v>
@@ -1251,13 +1248,13 @@
         <v>2871</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>43</v>
       </c>
       <c r="M9" s="7">
         <v>5</v>
@@ -1266,19 +1263,19 @@
         <v>4831</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" s="7">
         <v>1</v>
@@ -1287,13 +1284,13 @@
         <v>807</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1302,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K10" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L10" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -1317,13 +1314,13 @@
         <v>807</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1379,7 +1376,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1391,10 +1388,10 @@
         <v>21043</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>13</v>
@@ -1406,13 +1403,13 @@
         <v>41052</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="M12" s="7">
         <v>56</v>
@@ -1421,13 +1418,13 @@
         <v>62095</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1442,13 +1439,13 @@
         <v>1995</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -1457,13 +1454,13 @@
         <v>1812</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="M13" s="7">
         <v>4</v>
@@ -1472,19 +1469,19 @@
         <v>3807</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C14" s="7">
         <v>0</v>
@@ -1493,13 +1490,13 @@
         <v>0</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -1508,13 +1505,13 @@
         <v>1067</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M14" s="7">
         <v>1</v>
@@ -1523,13 +1520,13 @@
         <v>1067</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1585,7 +1582,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1600,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>15</v>
@@ -1612,13 +1609,13 @@
         <v>27837</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>37</v>
@@ -1627,13 +1624,13 @@
         <v>39307</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,13 +1645,13 @@
         <v>0</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -1663,13 +1660,13 @@
         <v>3037</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -1678,19 +1675,19 @@
         <v>3037</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C18" s="7">
         <v>0</v>
@@ -1699,13 +1696,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G18" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1714,13 +1711,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="K18" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="L18" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M18" s="7">
         <v>0</v>
@@ -1729,13 +1726,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P18" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="Q18" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1791,7 +1788,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1803,10 +1800,10 @@
         <v>28339</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>13</v>
@@ -1818,13 +1815,13 @@
         <v>37165</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M20" s="7">
         <v>63</v>
@@ -1833,13 +1830,13 @@
         <v>65506</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,13 +1851,13 @@
         <v>1747</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H21" s="7">
         <v>3</v>
@@ -1869,13 +1866,13 @@
         <v>3119</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M21" s="7">
         <v>5</v>
@@ -1884,19 +1881,19 @@
         <v>4866</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C22" s="7">
         <v>0</v>
@@ -1905,13 +1902,13 @@
         <v>0</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="F22" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="G22" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -1920,13 +1917,13 @@
         <v>902</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -1935,13 +1932,13 @@
         <v>902</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2009,10 +2006,10 @@
         <v>78799</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>112</v>
@@ -2030,7 +2027,7 @@
         <v>114</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>115</v>
+        <v>36</v>
       </c>
       <c r="M24" s="7">
         <v>193</v>
@@ -2039,13 +2036,13 @@
         <v>205148</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,13 +2057,13 @@
         <v>6579</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H25" s="7">
         <v>11</v>
@@ -2075,13 +2072,13 @@
         <v>10839</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M25" s="7">
         <v>18</v>
@@ -2090,19 +2087,19 @@
         <v>17419</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="7">
         <v>1</v>
@@ -2111,13 +2108,13 @@
         <v>807</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -2126,13 +2123,13 @@
         <v>1969</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2141,13 +2138,13 @@
         <v>2775</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2203,7 +2200,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
